--- a/audit/audit-SEO-chouette.xlsx
+++ b/audit/audit-SEO-chouette.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\excellentia5\Documents\FORMATION\Git-repos\P4\audit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8799985-EC57-425C-97D9-B7C436FF0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27F9053-C393-4460-A682-73C5DA0B8DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,8 +616,8 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
